--- a/municipal/სასტუმროები/სტუმრები/იმერეთი/წყალტუბო.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/იმერეთი/წყალტუბო.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\იმერეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -68,7 +68,52 @@
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით წყალტუბოს მუნიციპალიტეტი</t>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით წყალტუბოს მუნიციპალიტეტში</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -76,9 +121,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +205,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -175,7 +234,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -236,13 +295,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -318,14 +386,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -333,14 +407,11 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -624,7 +695,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI87"/>
+  <dimension ref="A1:BI88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -642,7 +713,7 @@
   <sheetData>
     <row r="1" spans="1:61" s="25" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
@@ -709,66 +780,66 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
-      <c r="AH2" s="34"/>
-      <c r="AI2" s="34"/>
-      <c r="AJ2" s="34"/>
-      <c r="AK2" s="34"/>
-      <c r="AL2" s="34"/>
-      <c r="AM2" s="34"/>
-      <c r="AN2" s="34"/>
-      <c r="AO2" s="34"/>
-      <c r="AP2" s="34"/>
-      <c r="AQ2" s="34"/>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="34"/>
-      <c r="AU2" s="34"/>
-      <c r="AV2" s="34"/>
-      <c r="AW2" s="34"/>
-      <c r="AX2" s="34"/>
-      <c r="AY2" s="34"/>
-      <c r="AZ2" s="34"/>
-      <c r="BA2" s="34"/>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="34"/>
-      <c r="BE2" s="34"/>
-      <c r="BF2" s="34"/>
-      <c r="BG2" s="34"/>
-      <c r="BH2" s="34"/>
-      <c r="BI2" s="34"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
+      <c r="AC2" s="37"/>
+      <c r="AD2" s="37"/>
+      <c r="AE2" s="37"/>
+      <c r="AF2" s="37"/>
+      <c r="AG2" s="37"/>
+      <c r="AH2" s="37"/>
+      <c r="AI2" s="37"/>
+      <c r="AJ2" s="37"/>
+      <c r="AK2" s="37"/>
+      <c r="AL2" s="37"/>
+      <c r="AM2" s="37"/>
+      <c r="AN2" s="37"/>
+      <c r="AO2" s="37"/>
+      <c r="AP2" s="37"/>
+      <c r="AQ2" s="37"/>
+      <c r="AR2" s="37"/>
+      <c r="AS2" s="37"/>
+      <c r="AT2" s="37"/>
+      <c r="AU2" s="37"/>
+      <c r="AV2" s="37"/>
+      <c r="AW2" s="37"/>
+      <c r="AX2" s="37"/>
+      <c r="AY2" s="37"/>
+      <c r="AZ2" s="37"/>
+      <c r="BA2" s="37"/>
+      <c r="BB2" s="37"/>
+      <c r="BC2" s="37"/>
+      <c r="BD2" s="37"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
     </row>
     <row r="3" spans="1:61" s="26" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -846,14 +917,14 @@
       <c r="BI3" s="8"/>
     </row>
     <row r="4" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="35">
+      <c r="A4" s="40">
         <v>2010</v>
       </c>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -1361,14 +1432,14 @@
       <c r="BI10" s="13"/>
     </row>
     <row r="11" spans="1:61" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33">
+      <c r="A11" s="36">
         <v>2011</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
@@ -1429,19 +1500,19 @@
       <c r="A12" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12" s="33">
         <v>1911</v>
       </c>
-      <c r="C12" s="38">
+      <c r="C12" s="33">
         <v>847</v>
       </c>
-      <c r="D12" s="38">
+      <c r="D12" s="33">
         <v>225</v>
       </c>
-      <c r="E12" s="38">
+      <c r="E12" s="33">
         <v>197</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="33">
         <v>642</v>
       </c>
     </row>
@@ -1449,19 +1520,19 @@
       <c r="A13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="34">
         <v>1152</v>
       </c>
-      <c r="C13" s="39">
+      <c r="C13" s="34">
         <v>455</v>
       </c>
-      <c r="D13" s="39">
+      <c r="D13" s="34">
         <v>119</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="34">
         <v>52</v>
       </c>
-      <c r="F13" s="39">
+      <c r="F13" s="34">
         <v>526</v>
       </c>
     </row>
@@ -1469,19 +1540,19 @@
       <c r="A14" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="34">
         <v>759</v>
       </c>
-      <c r="C14" s="39">
+      <c r="C14" s="34">
         <v>392</v>
       </c>
-      <c r="D14" s="39">
+      <c r="D14" s="34">
         <v>106</v>
       </c>
-      <c r="E14" s="39">
+      <c r="E14" s="34">
         <v>145</v>
       </c>
-      <c r="F14" s="39">
+      <c r="F14" s="34">
         <v>116</v>
       </c>
     </row>
@@ -1489,19 +1560,19 @@
       <c r="A15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="34">
         <v>39</v>
       </c>
-      <c r="C15" s="39">
+      <c r="C15" s="34">
         <v>25</v>
       </c>
-      <c r="D15" s="39">
+      <c r="D15" s="34">
         <v>14</v>
       </c>
-      <c r="E15" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1509,19 +1580,19 @@
       <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="34">
         <v>436</v>
       </c>
-      <c r="C16" s="39">
+      <c r="C16" s="34">
         <v>199</v>
       </c>
-      <c r="D16" s="39">
+      <c r="D16" s="34">
         <v>63</v>
       </c>
-      <c r="E16" s="39">
+      <c r="E16" s="34">
         <v>130</v>
       </c>
-      <c r="F16" s="39">
+      <c r="F16" s="34">
         <v>44</v>
       </c>
     </row>
@@ -1529,31 +1600,31 @@
       <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="40">
+      <c r="B17" s="35">
         <v>284</v>
       </c>
-      <c r="C17" s="40">
+      <c r="C17" s="35">
         <v>168</v>
       </c>
-      <c r="D17" s="40">
+      <c r="D17" s="35">
         <v>29</v>
       </c>
-      <c r="E17" s="40">
+      <c r="E17" s="35">
         <v>15</v>
       </c>
-      <c r="F17" s="40">
+      <c r="F17" s="35">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="33">
+      <c r="A18" s="36">
         <v>2012</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="18"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18"/>
@@ -1614,19 +1685,19 @@
       <c r="A19" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="33">
         <v>9097</v>
       </c>
-      <c r="C19" s="38">
+      <c r="C19" s="33">
         <v>5913</v>
       </c>
-      <c r="D19" s="38">
+      <c r="D19" s="33">
         <v>690</v>
       </c>
-      <c r="E19" s="38">
+      <c r="E19" s="33">
         <v>2019</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="33">
         <v>475</v>
       </c>
     </row>
@@ -1634,19 +1705,19 @@
       <c r="A20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="34">
         <v>3180</v>
       </c>
-      <c r="C20" s="39">
+      <c r="C20" s="34">
         <v>947</v>
       </c>
-      <c r="D20" s="39">
+      <c r="D20" s="34">
         <v>541</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="34">
         <v>1217</v>
       </c>
-      <c r="F20" s="39">
+      <c r="F20" s="34">
         <v>475</v>
       </c>
     </row>
@@ -1654,19 +1725,19 @@
       <c r="A21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="39">
+      <c r="B21" s="34">
         <v>5917</v>
       </c>
-      <c r="C21" s="39">
+      <c r="C21" s="34">
         <v>4966</v>
       </c>
-      <c r="D21" s="39">
+      <c r="D21" s="34">
         <v>149</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="34">
         <v>802</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1674,19 +1745,19 @@
       <c r="A22" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="34">
         <v>89</v>
       </c>
-      <c r="C22" s="39">
+      <c r="C22" s="34">
         <v>5</v>
       </c>
-      <c r="D22" s="39">
+      <c r="D22" s="34">
         <v>50</v>
       </c>
-      <c r="E22" s="39">
+      <c r="E22" s="34">
         <v>34</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1694,19 +1765,19 @@
       <c r="A23" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="39">
+      <c r="B23" s="34">
         <v>4088</v>
       </c>
-      <c r="C23" s="39">
+      <c r="C23" s="34">
         <v>3403</v>
       </c>
-      <c r="D23" s="39">
+      <c r="D23" s="34">
         <v>58</v>
       </c>
-      <c r="E23" s="39">
+      <c r="E23" s="34">
         <v>627</v>
       </c>
-      <c r="F23" s="39" t="s">
+      <c r="F23" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1714,31 +1785,31 @@
       <c r="A24" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="40">
+      <c r="B24" s="35">
         <v>1740</v>
       </c>
-      <c r="C24" s="40">
+      <c r="C24" s="35">
         <v>1558</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="35">
         <v>41</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="35">
         <v>141</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="F24" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33">
+      <c r="A25" s="36">
         <v>2013</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
@@ -1799,19 +1870,19 @@
       <c r="A26" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26" s="33">
         <v>22073</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="33">
         <v>16566</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="33">
         <v>1664</v>
       </c>
-      <c r="E26" s="38">
+      <c r="E26" s="33">
         <v>960</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="33">
         <v>2883</v>
       </c>
     </row>
@@ -1819,19 +1890,19 @@
       <c r="A27" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="39">
+      <c r="B27" s="34">
         <v>4257</v>
       </c>
-      <c r="C27" s="39">
+      <c r="C27" s="34">
         <v>1887</v>
       </c>
-      <c r="D27" s="39">
+      <c r="D27" s="34">
         <v>1618</v>
       </c>
-      <c r="E27" s="39">
+      <c r="E27" s="34">
         <v>649</v>
       </c>
-      <c r="F27" s="39">
+      <c r="F27" s="34">
         <v>103</v>
       </c>
     </row>
@@ -1839,19 +1910,19 @@
       <c r="A28" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="34">
         <v>17816</v>
       </c>
-      <c r="C28" s="39">
+      <c r="C28" s="34">
         <v>14679</v>
       </c>
-      <c r="D28" s="39">
+      <c r="D28" s="34">
         <v>46</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="34">
         <v>311</v>
       </c>
-      <c r="F28" s="39">
+      <c r="F28" s="34">
         <v>2780</v>
       </c>
     </row>
@@ -1859,19 +1930,19 @@
       <c r="A29" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="39">
+      <c r="B29" s="34">
         <v>3209</v>
       </c>
-      <c r="C29" s="39">
+      <c r="C29" s="34">
         <v>663</v>
       </c>
-      <c r="D29" s="39">
+      <c r="D29" s="34">
         <v>42</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="34">
         <v>30</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="34">
         <v>2474</v>
       </c>
     </row>
@@ -1879,19 +1950,19 @@
       <c r="A30" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="39">
+      <c r="B30" s="34">
         <v>1248</v>
       </c>
-      <c r="C30" s="39">
+      <c r="C30" s="34">
         <v>658</v>
       </c>
-      <c r="D30" s="39">
+      <c r="D30" s="34">
         <v>4</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="34">
         <v>281</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="34">
         <v>305</v>
       </c>
     </row>
@@ -1899,31 +1970,31 @@
       <c r="A31" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="40">
+      <c r="B31" s="35">
         <v>13359</v>
       </c>
-      <c r="C31" s="40">
+      <c r="C31" s="35">
         <v>13358</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="40">
+      <c r="D31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="35">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="33">
+      <c r="A32" s="36">
         <v>2014</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
@@ -1984,19 +2055,19 @@
       <c r="A33" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33" s="33">
         <v>33123</v>
       </c>
-      <c r="C33" s="38">
+      <c r="C33" s="33">
         <v>6823</v>
       </c>
-      <c r="D33" s="38">
+      <c r="D33" s="33">
         <v>1793</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="33">
         <v>1175</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="33">
         <v>23332</v>
       </c>
     </row>
@@ -2004,19 +2075,19 @@
       <c r="A34" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B34" s="39">
+      <c r="B34" s="34">
         <v>6348</v>
       </c>
-      <c r="C34" s="39">
+      <c r="C34" s="34">
         <v>1421</v>
       </c>
-      <c r="D34" s="39">
+      <c r="D34" s="34">
         <v>1793</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="34">
         <v>597</v>
       </c>
-      <c r="F34" s="39">
+      <c r="F34" s="34">
         <v>2537</v>
       </c>
     </row>
@@ -2024,19 +2095,19 @@
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="39">
+      <c r="B35" s="34">
         <v>26775</v>
       </c>
-      <c r="C35" s="39">
+      <c r="C35" s="34">
         <v>5402</v>
       </c>
-      <c r="D35" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="39">
+      <c r="D35" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="34">
         <v>578</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="34">
         <v>20795</v>
       </c>
     </row>
@@ -2044,19 +2115,19 @@
       <c r="A36" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="39">
+      <c r="B36" s="34">
         <v>5508</v>
       </c>
-      <c r="C36" s="39">
+      <c r="C36" s="34">
         <v>34</v>
       </c>
-      <c r="D36" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="39">
+      <c r="D36" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="34">
         <v>5474</v>
       </c>
     </row>
@@ -2064,19 +2135,19 @@
       <c r="A37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="39">
+      <c r="B37" s="34">
         <v>2325</v>
       </c>
-      <c r="C37" s="39">
+      <c r="C37" s="34">
         <v>1066</v>
       </c>
-      <c r="D37" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="39">
+      <c r="D37" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="34">
         <v>578</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="34">
         <v>681</v>
       </c>
     </row>
@@ -2084,31 +2155,31 @@
       <c r="A38" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="40">
+      <c r="B38" s="35">
         <v>18942</v>
       </c>
-      <c r="C38" s="40">
+      <c r="C38" s="35">
         <v>4302</v>
       </c>
-      <c r="D38" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="40">
+      <c r="D38" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="35">
         <v>14640</v>
       </c>
     </row>
     <row r="39" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="33">
+      <c r="A39" s="36">
         <v>2015</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="33"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
       <c r="I39" s="18"/>
@@ -2169,19 +2240,19 @@
       <c r="A40" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="33">
         <v>40928</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="33">
         <v>24544</v>
       </c>
-      <c r="D40" s="38">
+      <c r="D40" s="33">
         <v>2111</v>
       </c>
-      <c r="E40" s="38">
+      <c r="E40" s="33">
         <v>4541</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="33">
         <v>9732</v>
       </c>
       <c r="G40" s="20"/>
@@ -2244,19 +2315,19 @@
       <c r="A41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="39">
+      <c r="B41" s="34">
         <v>7419</v>
       </c>
-      <c r="C41" s="39">
+      <c r="C41" s="34">
         <v>249</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="34">
         <v>2096</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="34">
         <v>2862</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F41" s="34">
         <v>2212</v>
       </c>
     </row>
@@ -2264,19 +2335,19 @@
       <c r="A42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="39">
+      <c r="B42" s="34">
         <v>33509</v>
       </c>
-      <c r="C42" s="39">
+      <c r="C42" s="34">
         <v>24295</v>
       </c>
-      <c r="D42" s="39">
+      <c r="D42" s="34">
         <v>15</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E42" s="34">
         <v>1679</v>
       </c>
-      <c r="F42" s="39">
+      <c r="F42" s="34">
         <v>7520</v>
       </c>
     </row>
@@ -2284,19 +2355,19 @@
       <c r="A43" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="39">
+      <c r="B43" s="34">
         <v>4045</v>
       </c>
-      <c r="C43" s="39">
+      <c r="C43" s="34">
         <v>2164</v>
       </c>
-      <c r="D43" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="39">
+      <c r="D43" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="34">
         <v>330</v>
       </c>
-      <c r="F43" s="39">
+      <c r="F43" s="34">
         <v>1551</v>
       </c>
     </row>
@@ -2304,19 +2375,19 @@
       <c r="A44" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="39">
+      <c r="B44" s="34">
         <v>5349</v>
       </c>
-      <c r="C44" s="39">
+      <c r="C44" s="34">
         <v>4675</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="34">
         <v>15</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="34">
         <v>629</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="34">
         <v>30</v>
       </c>
     </row>
@@ -2324,31 +2395,31 @@
       <c r="A45" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="40">
+      <c r="B45" s="35">
         <v>24115</v>
       </c>
-      <c r="C45" s="40">
+      <c r="C45" s="35">
         <v>17456</v>
       </c>
-      <c r="D45" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" s="40">
+      <c r="D45" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="35">
         <v>720</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F45" s="35">
         <v>5939</v>
       </c>
     </row>
     <row r="46" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="33">
+      <c r="A46" s="36">
         <v>2016</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
       <c r="I46" s="18"/>
@@ -2409,19 +2480,19 @@
       <c r="A47" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B47" s="38">
+      <c r="B47" s="33">
         <v>41018</v>
       </c>
-      <c r="C47" s="38">
+      <c r="C47" s="33">
         <v>22066</v>
       </c>
-      <c r="D47" s="38">
+      <c r="D47" s="33">
         <v>9687</v>
       </c>
-      <c r="E47" s="38">
+      <c r="E47" s="33">
         <v>5165</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="33">
         <v>4100</v>
       </c>
     </row>
@@ -2429,19 +2500,19 @@
       <c r="A48" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B48" s="39">
+      <c r="B48" s="34">
         <v>14614</v>
       </c>
-      <c r="C48" s="39">
+      <c r="C48" s="34">
         <v>1834</v>
       </c>
-      <c r="D48" s="39">
+      <c r="D48" s="34">
         <v>9434</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E48" s="34">
         <v>2417</v>
       </c>
-      <c r="F48" s="39">
+      <c r="F48" s="34">
         <v>929</v>
       </c>
     </row>
@@ -2449,19 +2520,19 @@
       <c r="A49" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="39">
+      <c r="B49" s="34">
         <v>26404</v>
       </c>
-      <c r="C49" s="39">
+      <c r="C49" s="34">
         <v>20232</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="34">
         <v>253</v>
       </c>
-      <c r="E49" s="39">
+      <c r="E49" s="34">
         <v>2748</v>
       </c>
-      <c r="F49" s="39">
+      <c r="F49" s="34">
         <v>3171</v>
       </c>
     </row>
@@ -2469,19 +2540,19 @@
       <c r="A50" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="39">
+      <c r="B50" s="34">
         <v>2251</v>
       </c>
-      <c r="C50" s="39">
+      <c r="C50" s="34">
         <v>1805</v>
       </c>
-      <c r="D50" s="39">
+      <c r="D50" s="34">
         <v>127</v>
       </c>
-      <c r="E50" s="39">
+      <c r="E50" s="34">
         <v>29</v>
       </c>
-      <c r="F50" s="39">
+      <c r="F50" s="34">
         <v>290</v>
       </c>
     </row>
@@ -2489,19 +2560,19 @@
       <c r="A51" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="39">
+      <c r="B51" s="34">
         <v>9659</v>
       </c>
-      <c r="C51" s="39">
+      <c r="C51" s="34">
         <v>7329</v>
       </c>
-      <c r="D51" s="39">
+      <c r="D51" s="34">
         <v>41</v>
       </c>
-      <c r="E51" s="39">
+      <c r="E51" s="34">
         <v>1932</v>
       </c>
-      <c r="F51" s="39">
+      <c r="F51" s="34">
         <v>357</v>
       </c>
     </row>
@@ -2509,31 +2580,31 @@
       <c r="A52" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="40">
+      <c r="B52" s="35">
         <v>14494</v>
       </c>
-      <c r="C52" s="40">
+      <c r="C52" s="35">
         <v>11098</v>
       </c>
-      <c r="D52" s="40">
+      <c r="D52" s="35">
         <v>85</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="35">
         <v>787</v>
       </c>
-      <c r="F52" s="40">
+      <c r="F52" s="35">
         <v>2524</v>
       </c>
     </row>
     <row r="53" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="33">
+      <c r="A53" s="36">
         <v>2017</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="33"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
       <c r="I53" s="18"/>
@@ -2594,19 +2665,19 @@
       <c r="A54" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54" s="33">
         <v>44248</v>
       </c>
-      <c r="C54" s="38">
+      <c r="C54" s="33">
         <v>24996</v>
       </c>
-      <c r="D54" s="38">
+      <c r="D54" s="33">
         <v>11319</v>
       </c>
-      <c r="E54" s="38">
+      <c r="E54" s="33">
         <v>7914</v>
       </c>
-      <c r="F54" s="38">
+      <c r="F54" s="33">
         <v>19</v>
       </c>
     </row>
@@ -2614,19 +2685,19 @@
       <c r="A55" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B55" s="39">
+      <c r="B55" s="34">
         <v>18844</v>
       </c>
-      <c r="C55" s="39">
+      <c r="C55" s="34">
         <v>4535</v>
       </c>
-      <c r="D55" s="39">
+      <c r="D55" s="34">
         <v>11089</v>
       </c>
-      <c r="E55" s="39">
+      <c r="E55" s="34">
         <v>3205</v>
       </c>
-      <c r="F55" s="39">
+      <c r="F55" s="34">
         <v>15</v>
       </c>
     </row>
@@ -2634,19 +2705,19 @@
       <c r="A56" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B56" s="39">
+      <c r="B56" s="34">
         <v>25404</v>
       </c>
-      <c r="C56" s="39">
+      <c r="C56" s="34">
         <v>20461</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D56" s="34">
         <v>230</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="34">
         <v>4709</v>
       </c>
-      <c r="F56" s="39">
+      <c r="F56" s="34">
         <v>4</v>
       </c>
     </row>
@@ -2654,19 +2725,19 @@
       <c r="A57" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B57" s="39">
+      <c r="B57" s="34">
         <v>889</v>
       </c>
-      <c r="C57" s="39">
+      <c r="C57" s="34">
         <v>616</v>
       </c>
-      <c r="D57" s="39">
+      <c r="D57" s="34">
         <v>124</v>
       </c>
-      <c r="E57" s="39">
+      <c r="E57" s="34">
         <v>149</v>
       </c>
-      <c r="F57" s="39" t="s">
+      <c r="F57" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2674,19 +2745,19 @@
       <c r="A58" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B58" s="39">
+      <c r="B58" s="34">
         <v>18527</v>
       </c>
-      <c r="C58" s="39">
+      <c r="C58" s="34">
         <v>14392</v>
       </c>
-      <c r="D58" s="39">
+      <c r="D58" s="34">
         <v>9</v>
       </c>
-      <c r="E58" s="39">
+      <c r="E58" s="34">
         <v>4122</v>
       </c>
-      <c r="F58" s="39">
+      <c r="F58" s="34">
         <v>4</v>
       </c>
     </row>
@@ -2694,31 +2765,31 @@
       <c r="A59" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="40">
+      <c r="B59" s="35">
         <v>5988</v>
       </c>
-      <c r="C59" s="40">
+      <c r="C59" s="35">
         <v>5453</v>
       </c>
-      <c r="D59" s="40">
+      <c r="D59" s="35">
         <v>97</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="35">
         <v>438</v>
       </c>
-      <c r="F59" s="40" t="s">
+      <c r="F59" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="33">
+      <c r="A60" s="36">
         <v>2018</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
       <c r="G60" s="18"/>
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
@@ -2779,19 +2850,19 @@
       <c r="A61" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B61" s="38">
+      <c r="B61" s="33">
         <v>44495</v>
       </c>
-      <c r="C61" s="38">
+      <c r="C61" s="33">
         <v>32149</v>
       </c>
-      <c r="D61" s="38">
+      <c r="D61" s="33">
         <v>4012</v>
       </c>
-      <c r="E61" s="38">
+      <c r="E61" s="33">
         <v>5052</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="33">
         <v>3282</v>
       </c>
     </row>
@@ -2799,19 +2870,19 @@
       <c r="A62" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B62" s="39">
+      <c r="B62" s="34">
         <v>20340</v>
       </c>
-      <c r="C62" s="39">
+      <c r="C62" s="34">
         <v>12790</v>
       </c>
-      <c r="D62" s="39">
+      <c r="D62" s="34">
         <v>3752</v>
       </c>
-      <c r="E62" s="39">
+      <c r="E62" s="34">
         <v>3446</v>
       </c>
-      <c r="F62" s="39">
+      <c r="F62" s="34">
         <v>352</v>
       </c>
     </row>
@@ -2819,19 +2890,19 @@
       <c r="A63" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B63" s="39">
+      <c r="B63" s="34">
         <v>24155</v>
       </c>
-      <c r="C63" s="39">
+      <c r="C63" s="34">
         <v>19359</v>
       </c>
-      <c r="D63" s="39">
+      <c r="D63" s="34">
         <v>260</v>
       </c>
-      <c r="E63" s="39">
+      <c r="E63" s="34">
         <v>1606</v>
       </c>
-      <c r="F63" s="39">
+      <c r="F63" s="34">
         <v>2930</v>
       </c>
     </row>
@@ -2839,19 +2910,19 @@
       <c r="A64" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B64" s="39">
+      <c r="B64" s="34">
         <v>1784</v>
       </c>
-      <c r="C64" s="39">
+      <c r="C64" s="34">
         <v>1579</v>
       </c>
-      <c r="D64" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" s="39">
+      <c r="D64" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="34">
         <v>205</v>
       </c>
-      <c r="F64" s="39" t="s">
+      <c r="F64" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2859,19 +2930,19 @@
       <c r="A65" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B65" s="39">
+      <c r="B65" s="34">
         <v>11770</v>
       </c>
-      <c r="C65" s="39">
+      <c r="C65" s="34">
         <v>10659</v>
       </c>
-      <c r="D65" s="39">
+      <c r="D65" s="34">
         <v>10</v>
       </c>
-      <c r="E65" s="39">
+      <c r="E65" s="34">
         <v>1101</v>
       </c>
-      <c r="F65" s="39" t="s">
+      <c r="F65" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2879,31 +2950,31 @@
       <c r="A66" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="40">
+      <c r="B66" s="35">
         <v>10601</v>
       </c>
-      <c r="C66" s="40">
+      <c r="C66" s="35">
         <v>7121</v>
       </c>
-      <c r="D66" s="40">
+      <c r="D66" s="35">
         <v>250</v>
       </c>
-      <c r="E66" s="40">
+      <c r="E66" s="35">
         <v>300</v>
       </c>
-      <c r="F66" s="40">
+      <c r="F66" s="35">
         <v>2930</v>
       </c>
     </row>
     <row r="67" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="33">
+      <c r="A67" s="36">
         <v>2019</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="33"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
       <c r="G67" s="18"/>
       <c r="H67" s="18"/>
       <c r="I67" s="18"/>
@@ -2964,19 +3035,19 @@
       <c r="A68" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B68" s="38">
+      <c r="B68" s="33">
         <v>64147</v>
       </c>
-      <c r="C68" s="38">
+      <c r="C68" s="33">
         <v>41234</v>
       </c>
-      <c r="D68" s="38">
+      <c r="D68" s="33">
         <v>9461</v>
       </c>
-      <c r="E68" s="38">
+      <c r="E68" s="33">
         <v>8242</v>
       </c>
-      <c r="F68" s="38">
+      <c r="F68" s="33">
         <v>5210</v>
       </c>
     </row>
@@ -2984,19 +3055,19 @@
       <c r="A69" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B69" s="39">
+      <c r="B69" s="34">
         <v>28600</v>
       </c>
-      <c r="C69" s="39">
+      <c r="C69" s="34">
         <v>11691</v>
       </c>
-      <c r="D69" s="39">
+      <c r="D69" s="34">
         <v>9256</v>
       </c>
-      <c r="E69" s="39">
+      <c r="E69" s="34">
         <v>5393</v>
       </c>
-      <c r="F69" s="39">
+      <c r="F69" s="34">
         <v>2260</v>
       </c>
     </row>
@@ -3004,19 +3075,19 @@
       <c r="A70" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B70" s="39">
+      <c r="B70" s="34">
         <v>35547</v>
       </c>
-      <c r="C70" s="39">
+      <c r="C70" s="34">
         <v>29543</v>
       </c>
-      <c r="D70" s="39">
+      <c r="D70" s="34">
         <v>205</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E70" s="34">
         <v>2849</v>
       </c>
-      <c r="F70" s="39">
+      <c r="F70" s="34">
         <v>2950</v>
       </c>
     </row>
@@ -3024,19 +3095,19 @@
       <c r="A71" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="39">
+      <c r="B71" s="34">
         <v>2383</v>
       </c>
-      <c r="C71" s="39">
+      <c r="C71" s="34">
         <v>2151</v>
       </c>
-      <c r="D71" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" s="39">
+      <c r="D71" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="34">
         <v>232</v>
       </c>
-      <c r="F71" s="39" t="s">
+      <c r="F71" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3044,19 +3115,19 @@
       <c r="A72" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B72" s="39">
+      <c r="B72" s="34">
         <v>18600</v>
       </c>
-      <c r="C72" s="39">
+      <c r="C72" s="34">
         <v>16318</v>
       </c>
-      <c r="D72" s="39">
+      <c r="D72" s="34">
         <v>5</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="34">
         <v>2277</v>
       </c>
-      <c r="F72" s="39" t="s">
+      <c r="F72" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3064,31 +3135,31 @@
       <c r="A73" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B73" s="40">
+      <c r="B73" s="35">
         <v>14564</v>
       </c>
-      <c r="C73" s="40">
+      <c r="C73" s="35">
         <v>11074</v>
       </c>
-      <c r="D73" s="40">
+      <c r="D73" s="35">
         <v>200</v>
       </c>
-      <c r="E73" s="40">
+      <c r="E73" s="35">
         <v>340</v>
       </c>
-      <c r="F73" s="40">
+      <c r="F73" s="35">
         <v>2950</v>
       </c>
     </row>
     <row r="74" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="33">
+      <c r="A74" s="36">
         <v>2020</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="33"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
       <c r="G74" s="18"/>
       <c r="H74" s="18"/>
       <c r="I74" s="18"/>
@@ -3149,19 +3220,19 @@
       <c r="A75" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B75" s="38">
+      <c r="B75" s="33">
         <v>19307</v>
       </c>
-      <c r="C75" s="38">
+      <c r="C75" s="33">
         <v>2455</v>
       </c>
-      <c r="D75" s="38">
+      <c r="D75" s="33">
         <v>13556</v>
       </c>
-      <c r="E75" s="38">
+      <c r="E75" s="33">
         <v>523</v>
       </c>
-      <c r="F75" s="38">
+      <c r="F75" s="33">
         <v>2773</v>
       </c>
     </row>
@@ -3169,19 +3240,19 @@
       <c r="A76" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B76" s="39">
+      <c r="B76" s="34">
         <v>19210</v>
       </c>
-      <c r="C76" s="39">
+      <c r="C76" s="34">
         <v>2358</v>
       </c>
-      <c r="D76" s="39">
+      <c r="D76" s="34">
         <v>13556</v>
       </c>
-      <c r="E76" s="39">
+      <c r="E76" s="34">
         <v>523</v>
       </c>
-      <c r="F76" s="39">
+      <c r="F76" s="34">
         <v>2773</v>
       </c>
     </row>
@@ -3189,19 +3260,19 @@
       <c r="A77" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="39">
+      <c r="B77" s="34">
         <v>97</v>
       </c>
-      <c r="C77" s="39">
+      <c r="C77" s="34">
         <v>97</v>
       </c>
-      <c r="D77" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F77" s="39" t="s">
+      <c r="D77" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3209,19 +3280,19 @@
       <c r="A78" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B78" s="39">
+      <c r="B78" s="34">
         <v>28</v>
       </c>
-      <c r="C78" s="39">
+      <c r="C78" s="34">
         <v>28</v>
       </c>
-      <c r="D78" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="39" t="s">
+      <c r="D78" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3229,19 +3300,19 @@
       <c r="A79" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B79" s="39">
+      <c r="B79" s="34">
         <v>19</v>
       </c>
-      <c r="C79" s="39">
+      <c r="C79" s="34">
         <v>19</v>
       </c>
-      <c r="D79" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F79" s="39" t="s">
+      <c r="D79" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="34" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3249,31 +3320,31 @@
       <c r="A80" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B80" s="40">
+      <c r="B80" s="35">
         <v>50</v>
       </c>
-      <c r="C80" s="40">
+      <c r="C80" s="35">
         <v>50</v>
       </c>
-      <c r="D80" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="40" t="s">
+      <c r="D80" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:61" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="33">
+      <c r="A81" s="36">
         <v>2021</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="33"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
       <c r="I81" s="18"/>
@@ -3334,19 +3405,19 @@
       <c r="A82" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B82" s="38">
+      <c r="B82" s="33">
         <v>24099</v>
       </c>
-      <c r="C82" s="38">
+      <c r="C82" s="33">
         <v>8818</v>
       </c>
-      <c r="D82" s="38">
+      <c r="D82" s="33">
         <v>8232</v>
       </c>
-      <c r="E82" s="38">
+      <c r="E82" s="33">
         <v>6948</v>
       </c>
-      <c r="F82" s="38">
+      <c r="F82" s="33">
         <v>101</v>
       </c>
     </row>
@@ -3354,19 +3425,19 @@
       <c r="A83" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B83" s="39">
+      <c r="B83" s="34">
         <v>19625</v>
       </c>
-      <c r="C83" s="39">
+      <c r="C83" s="34">
         <v>5462</v>
       </c>
-      <c r="D83" s="39">
+      <c r="D83" s="34">
         <v>8201</v>
       </c>
-      <c r="E83" s="39">
+      <c r="E83" s="34">
         <v>5896</v>
       </c>
-      <c r="F83" s="39">
+      <c r="F83" s="34">
         <v>66</v>
       </c>
     </row>
@@ -3374,19 +3445,19 @@
       <c r="A84" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B84" s="39">
+      <c r="B84" s="34">
         <v>4474</v>
       </c>
-      <c r="C84" s="39">
+      <c r="C84" s="34">
         <v>3356</v>
       </c>
-      <c r="D84" s="39">
+      <c r="D84" s="34">
         <v>31</v>
       </c>
-      <c r="E84" s="39">
+      <c r="E84" s="34">
         <v>1052</v>
       </c>
-      <c r="F84" s="39">
+      <c r="F84" s="34">
         <v>35</v>
       </c>
     </row>
@@ -3394,19 +3465,19 @@
       <c r="A85" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B85" s="39">
+      <c r="B85" s="34">
         <v>1516</v>
       </c>
-      <c r="C85" s="39">
+      <c r="C85" s="34">
         <v>1489</v>
       </c>
-      <c r="D85" s="39">
+      <c r="D85" s="34">
         <v>9</v>
       </c>
-      <c r="E85" s="39">
+      <c r="E85" s="34">
         <v>6</v>
       </c>
-      <c r="F85" s="39">
+      <c r="F85" s="34">
         <v>12</v>
       </c>
     </row>
@@ -3414,19 +3485,19 @@
       <c r="A86" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B86" s="39">
+      <c r="B86" s="34">
         <v>2081</v>
       </c>
-      <c r="C86" s="39">
+      <c r="C86" s="34">
         <v>1490</v>
       </c>
-      <c r="D86" s="39">
+      <c r="D86" s="34">
         <v>22</v>
       </c>
-      <c r="E86" s="39">
+      <c r="E86" s="34">
         <v>546</v>
       </c>
-      <c r="F86" s="39">
+      <c r="F86" s="34">
         <v>23</v>
       </c>
     </row>
@@ -3434,24 +3505,50 @@
       <c r="A87" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B87" s="40">
+      <c r="B87" s="35">
         <v>877</v>
       </c>
-      <c r="C87" s="40">
+      <c r="C87" s="35">
         <v>377</v>
       </c>
-      <c r="D87" s="40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="40">
+      <c r="D87" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="35">
         <v>500</v>
       </c>
-      <c r="F87" s="40" t="s">
-        <v>8</v>
-      </c>
+      <c r="F87" s="35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:61" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
@@ -3461,21 +3558,6 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
